--- a/doc/飲食店街システム設計書.xlsx
+++ b/doc/飲食店街システム設計書.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="クラス図" sheetId="3" r:id="rId3"/>
+    <sheet name="シーケンス図" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>main()</t>
     <phoneticPr fontId="1"/>
@@ -49,13 +51,6 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>情報クラス（ItemData）</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -132,12 +127,84 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>シーケンス図</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス図</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main(String[] args) : void</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChoseShop()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getInputData()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>choseNumber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;&lt;create&gt;&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size,name,price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getSize(),getName(),getPrice()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getSize(),getPrice()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size,price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>totalFee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報クラス（ItemData）※メニュー情報</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店が行う基本動作（共通の動作）</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +236,13 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -309,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -324,6 +398,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -664,6 +740,4226 @@
             <a:t>メニュー情報</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="正方形/長方形 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4527177" y="4527176"/>
+          <a:ext cx="7117976" cy="3594848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>475129</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>206188</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4509247" y="385482"/>
+          <a:ext cx="7799294" cy="3478306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1349829" y="457200"/>
+          <a:ext cx="2024742" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RestaurantCity()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1349829" y="685800"/>
+          <a:ext cx="2024742" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1349829" y="2743200"/>
+          <a:ext cx="2024742" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>main(String[] args) : void</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4049486" y="2514600"/>
+          <a:ext cx="7424057" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Shop()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4049486" y="2743200"/>
+          <a:ext cx="7424057" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shopName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : String</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4049486" y="2971800"/>
+          <a:ext cx="7424057" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" u="none" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@Override work(MenuData menuData, AdditionalMenuData additionalData) : int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" u="none" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@Override </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+            <a:t>work(MenuData menuData, SelectionMenuData selectionMenuData) : int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" u="none" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@Override </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+            <a:t>work(MenuData menuData, SelectionMenuData selectionMenuData, AdditionalMenuData additionalData) : int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" u="none" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>getInputData() : String</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4732020" y="6400800"/>
+          <a:ext cx="2692037" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ItemData()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4732020" y="6629400"/>
+          <a:ext cx="2692037" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4732020" y="6858000"/>
+          <a:ext cx="2692037" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>addData(String name,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>int price) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>getName(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>int number) :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>getPrice(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>int number) : int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>getSize() : void</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4732021" y="2971800"/>
+          <a:ext cx="0" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1349829" y="2057400"/>
+          <a:ext cx="1349828" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MenuData()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1349829" y="2286000"/>
+          <a:ext cx="1349828" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1349829" y="2514600"/>
+          <a:ext cx="1349828" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>674913</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>674913</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3374570" y="2057400"/>
+          <a:ext cx="2024743" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AdditionalMenuData()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>674913</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>674913</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3374570" y="2286000"/>
+          <a:ext cx="2024743" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>674913</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>674913</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3374570" y="2514600"/>
+          <a:ext cx="2024743" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6074229" y="2057400"/>
+          <a:ext cx="2024742" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SelectionMenuData()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6074229" y="2286000"/>
+          <a:ext cx="2024742" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6074229" y="2514600"/>
+          <a:ext cx="2024742" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3374571" y="3200400"/>
+          <a:ext cx="1349829" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="1600200"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6749143" y="1600200"/>
+          <a:ext cx="1" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9448800" y="1600200"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5399314" y="2971800"/>
+          <a:ext cx="1349829" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6749143" y="5486400"/>
+          <a:ext cx="3374571" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4049486" y="685800"/>
+          <a:ext cx="6749143" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Restaurant()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4049486" y="914400"/>
+          <a:ext cx="6749143" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4049486" y="1143000"/>
+          <a:ext cx="6749143" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>work(MenuData menuData, AdditionalMenuData additionalData) : int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>work(MenuData menuData, SelectionMenuData selectionMenuData) : int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>work(MenuData menuData, SelectionMenuData selectionMenuData, AdditionalMenuData additionalData) : int</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4724400" y="1828800"/>
+          <a:ext cx="0" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="diamond" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="カギ線コネクタ 56"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2699657" y="4114800"/>
+          <a:ext cx="2024743" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線コネクタ 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2699657" y="3657600"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="カギ線コネクタ 66"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2699657" y="4114800"/>
+          <a:ext cx="4049486" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 90860"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="カギ線コネクタ 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2699657" y="4114800"/>
+          <a:ext cx="6749143" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 94355"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="正方形/長方形 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1349829" y="4572000"/>
+          <a:ext cx="2024742" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ChoseShop()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1349829" y="4800600"/>
+          <a:ext cx="2024742" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1349829" y="5029200"/>
+          <a:ext cx="2024742" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shose() : int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>getInputData() : String</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2024743" y="3429000"/>
+          <a:ext cx="0" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直線コネクタ 88"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2420471" y="744071"/>
+          <a:ext cx="0" cy="8624047"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線コネクタ 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3818965" y="1443318"/>
+          <a:ext cx="0" cy="7924800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>116540</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>116540</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2303928" y="744071"/>
+          <a:ext cx="233083" cy="7924800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>112122</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3581463" y="2097741"/>
+          <a:ext cx="936749" cy="233083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:ChoseShop</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8247529" y="4473388"/>
+          <a:ext cx="0" cy="4894730"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7548283" y="5127812"/>
+          <a:ext cx="1515035" cy="699247"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:MenuData</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AdditionalMenuData</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SelectionMenuData</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590800" y="2971800"/>
+          <a:ext cx="1197429" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2623457" y="3429000"/>
+          <a:ext cx="1164772" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3788229" y="2971800"/>
+          <a:ext cx="239485" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線コネクタ 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4027714" y="2057400"/>
+          <a:ext cx="478972" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>116540</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>112121</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3818964" y="3496235"/>
+          <a:ext cx="228663" cy="233083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線コネクタ 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4506686" y="2057400"/>
+          <a:ext cx="0" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4147457" y="2286000"/>
+          <a:ext cx="359230" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2537012" y="2097741"/>
+          <a:ext cx="1048870" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>112121</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2532592" y="5593976"/>
+          <a:ext cx="5015690" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5217459" y="4661647"/>
+          <a:ext cx="582706" cy="233082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:Shop</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2537012" y="5127812"/>
+          <a:ext cx="2680447" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線コネクタ 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5450541" y="4007224"/>
+          <a:ext cx="0" cy="5360894"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2537012" y="5593976"/>
+          <a:ext cx="2796988" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>112122</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5334000" y="5593976"/>
+          <a:ext cx="228663" cy="2796989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線コネクタ 60"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5567082" y="6293224"/>
+          <a:ext cx="466165" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線コネクタ 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6033247" y="6293224"/>
+          <a:ext cx="0" cy="233082"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5683623" y="6526306"/>
+          <a:ext cx="349625" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線矢印コネクタ 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5567082" y="6293224"/>
+          <a:ext cx="1981200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8014447" y="6293225"/>
+          <a:ext cx="233082" cy="233082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5567083" y="6526306"/>
+          <a:ext cx="2447364" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5567082" y="5827059"/>
+          <a:ext cx="2447365" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8014447" y="5827060"/>
+          <a:ext cx="233082" cy="233082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直線矢印コネクタ 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5567083" y="6060141"/>
+          <a:ext cx="2447364" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>4418</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="正方形/長方形 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5454959" y="6060141"/>
+          <a:ext cx="228664" cy="2796988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線コネクタ 83"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5683624" y="7458635"/>
+          <a:ext cx="466164" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線コネクタ 84"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6149788" y="7458635"/>
+          <a:ext cx="0" cy="233083"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線矢印コネクタ 85"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5800164" y="7691718"/>
+          <a:ext cx="349625" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>4419</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5454960" y="6992471"/>
+          <a:ext cx="228663" cy="233082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直線矢印コネクタ 86"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2537013" y="7969624"/>
+          <a:ext cx="2796987" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>116536</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>116536</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="正方形/長方形 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4052042" y="5405718"/>
+          <a:ext cx="3496235" cy="3227294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>roop</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="正方形/長方形 95"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1013460" y="1653540"/>
+          <a:ext cx="7200900" cy="7315200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>roop</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -935,7 +5231,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -946,14 +5242,17 @@
     <col min="29" max="32" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -966,31 +5265,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="95" width="3" customWidth="1"/>
+    <col min="1" max="96" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1001,11 +5300,11 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="6"/>
-      <c r="P4" s="4" t="s">
-        <v>9</v>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+      <c r="Q4" s="4" t="s">
+        <v>8</v>
       </c>
-      <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -1013,9 +5312,10 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
-      <c r="Y4" s="6"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1026,9 +5326,9 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
@@ -1036,11 +5336,12 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
-      <c r="Y5" s="13"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="13"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C6" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1051,11 +5352,11 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="7"/>
-      <c r="P6" s="8" t="s">
-        <v>10</v>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7"/>
+      <c r="Q6" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -1063,11 +5364,12 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="7"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C7" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1078,9 +5380,9 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="7"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7"/>
+      <c r="Q7" s="8"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -1088,11 +5390,12 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="7"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C8" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1103,9 +5406,9 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="7"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="7"/>
+      <c r="Q8" s="8"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -1113,11 +5416,12 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="7"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C9" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1128,9 +5432,9 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="10"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="10"/>
+      <c r="Q9" s="9"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -1138,10 +5442,133 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="10"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK39"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="69" width="1.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C3" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="V10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="AJ21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="AK25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="AK27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="AK29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="AK33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="AK36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="J39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/飲食店街システム設計書.xlsx
+++ b/doc/飲食店街システム設計書.xlsx
@@ -8,11 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="クラス図" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="クラス図 (Rメモ)" sheetId="3" r:id="rId4"/>
-    <sheet name="シーケンス図" sheetId="4" r:id="rId5"/>
-    <sheet name="クラス図 (old)" sheetId="5" r:id="rId6"/>
+    <sheet name="シーケンス図" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="クラス図 (Rメモ)" sheetId="3" r:id="rId5"/>
+    <sheet name="シーケンス図 (old)" sheetId="4" r:id="rId6"/>
+    <sheet name="クラス図 (old)" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>main()</t>
     <phoneticPr fontId="1"/>
@@ -200,6 +201,33 @@
   <si>
     <t>飲食店が行う基本動作（共通の動作）</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setMenu()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orderCheck()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>checkMenuData()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setOrderMessage(),addOrderMessage()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getOrderMessage()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>totalFee</t>
   </si>
 </sst>
 </file>
@@ -429,9 +457,9 @@
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>283030</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>119741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -489,15 +517,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>84141</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>186145</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:colOff>298174</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -507,8 +535,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3458712" y="8241574"/>
-          <a:ext cx="10161494" cy="4081055"/>
+          <a:off x="4099550" y="8302487"/>
+          <a:ext cx="9583320" cy="4194313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -555,16 +583,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>475129</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>272142</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -573,8 +601,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4524615" y="391886"/>
-          <a:ext cx="11270556" cy="6389914"/>
+          <a:off x="5199529" y="424543"/>
+          <a:ext cx="11270556" cy="6618514"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -627,7 +655,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -690,7 +718,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -742,7 +770,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -799,13 +827,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -862,13 +890,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -936,13 +964,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1032,15 +1060,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1095,15 +1123,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1172,15 +1200,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1332,15 +1360,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1379,15 +1407,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1442,15 +1470,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1494,15 +1522,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1546,15 +1574,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>667293</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>667292</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1609,15 +1637,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>667293</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>667292</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1661,15 +1689,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>667293</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>667292</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1714,14 +1742,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:colOff>669233</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1731,8 +1759,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10798628" y="9427029"/>
-          <a:ext cx="2699658" cy="228600"/>
+          <a:off x="11376990" y="8633791"/>
+          <a:ext cx="2007706" cy="231913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1777,14 +1805,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:colOff>669233</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1794,8 +1822,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10798628" y="9655629"/>
-          <a:ext cx="2699658" cy="228600"/>
+          <a:off x="11376990" y="8865704"/>
+          <a:ext cx="2007706" cy="231913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1829,15 +1857,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>669233</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>231913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1846,8 +1874,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10798628" y="9884229"/>
-          <a:ext cx="2699658" cy="457200"/>
+          <a:off x="11376990" y="9097617"/>
+          <a:ext cx="2007706" cy="463826"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1880,13 +1908,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -1927,15 +1955,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1974,15 +2002,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2021,15 +2049,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2039,8 +2067,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5399314" y="3712029"/>
-          <a:ext cx="0" cy="1371600"/>
+          <a:off x="2007704" y="3763617"/>
+          <a:ext cx="0" cy="927653"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2068,13 +2096,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2131,13 +2159,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2183,13 +2211,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2265,13 +2293,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2318,7 +2346,7 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2381,7 +2409,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2418,8 +2446,50 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shopName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2433,9 +2503,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2446,7 +2516,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1349829" y="3026229"/>
-          <a:ext cx="2024742" cy="685800"/>
+          <a:ext cx="2699657" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2496,6 +2566,34 @@
             </a:rPr>
             <a:t>getInputData() : String</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>setMenu() : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>doAccounting() : int</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2611,13 +2709,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>576943</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>87085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>97972</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
@@ -2671,15 +2769,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2734,15 +2832,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2786,15 +2884,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2877,15 +2975,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2940,15 +3038,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3014,15 +3112,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3110,15 +3208,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>672352</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3173,15 +3271,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>672352</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3225,15 +3323,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>4137</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3302,15 +3400,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3365,15 +3463,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3417,15 +3515,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3494,13 +3592,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>552098</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>170328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>67874</xdr:rowOff>
@@ -3560,25 +3658,307 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>585395</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線矢印コネクタ 84"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2699657" y="3940629"/>
+          <a:ext cx="0" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="直線矢印コネクタ 87"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2689412" y="4473388"/>
+          <a:ext cx="6051176" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>663388</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線矢印コネクタ 92"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8087445" y="4397829"/>
+          <a:ext cx="11526" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直線矢印コネクタ 98"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3374571" y="3940629"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="直線矢印コネクタ 101"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3361765" y="4240306"/>
+          <a:ext cx="8068235" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="直線矢印コネクタ 102"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10728960" y="4168140"/>
+          <a:ext cx="0" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>576431</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>151054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>78121</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>69157</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="フローチャート: 組合せ 76"/>
+        <xdr:cNvPr id="110" name="フローチャート: 組合せ 109"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5291866" y="4857525"/>
+          <a:off x="7972313" y="4857525"/>
           <a:ext cx="165079" cy="130628"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
@@ -3620,308 +4000,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="直線矢印コネクタ 84"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6074229" y="3712029"/>
-          <a:ext cx="0" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="直線矢印コネクタ 87"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6074229" y="4397829"/>
-          <a:ext cx="2024742" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>663388</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>585395</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="93" name="直線矢印コネクタ 92"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8087445" y="4397829"/>
-          <a:ext cx="11526" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="99" name="直線矢印コネクタ 98"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6749143" y="3712029"/>
-          <a:ext cx="0" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="102" name="直線矢印コネクタ 101"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6705600" y="4168140"/>
-          <a:ext cx="4023360" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="103" name="直線矢印コネクタ 102"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10728960" y="4168140"/>
-          <a:ext cx="0" cy="1371600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>576431</xdr:colOff>
-      <xdr:row>23</xdr:row>
       <xdr:rowOff>151054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>69157</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>78122</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="フローチャート: 組合せ 109"/>
+        <xdr:cNvPr id="111" name="フローチャート: 組合せ 110"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7972313" y="4857525"/>
-          <a:ext cx="165079" cy="130628"/>
+          <a:off x="10643795" y="5462194"/>
+          <a:ext cx="163287" cy="126146"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
           <a:avLst/>
@@ -3962,26 +4060,1005 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>585395</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>151054</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>78122</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>668215</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="直線矢印コネクタ 124"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6691328" y="4691270"/>
+          <a:ext cx="1020" cy="927652"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571081</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>92109</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="フローチャート: 組合せ 110"/>
+        <xdr:cNvPr id="122" name="ひし形 121"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10643795" y="5462194"/>
-          <a:ext cx="163287" cy="126146"/>
+          <a:off x="5916804" y="5386753"/>
+          <a:ext cx="189243" cy="185058"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="直線矢印コネクタ 132"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12046226" y="4691270"/>
+          <a:ext cx="1" cy="927652"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>576105</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>97134</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="ひし形 123"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11305065" y="5387339"/>
+          <a:ext cx="191589" cy="185058"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直線矢印コネクタ 129"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9369287" y="4691270"/>
+          <a:ext cx="0" cy="927652"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>576105</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>97133</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="ひし形 122"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8594690" y="5386753"/>
+          <a:ext cx="189243" cy="185058"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="直線矢印コネクタ 135"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6692348" y="4691270"/>
+          <a:ext cx="7361582" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="直線矢印コネクタ 156"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6074229" y="6683829"/>
+          <a:ext cx="0" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="159" name="直線矢印コネクタ 158"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6074229" y="7598229"/>
+          <a:ext cx="0" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="直線矢印コネクタ 163"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6749143" y="7141029"/>
+          <a:ext cx="0" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="直線矢印コネクタ 164"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8098971" y="6683829"/>
+          <a:ext cx="0" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="167" name="直線矢印コネクタ 166"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6035040" y="7597140"/>
+          <a:ext cx="2011680" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="直線矢印コネクタ 170"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8773886" y="6683829"/>
+          <a:ext cx="0" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="173" name="直線矢印コネクタ 172"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11473543" y="7369629"/>
+          <a:ext cx="0" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="174" name="直線矢印コネクタ 173"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11473543" y="6683829"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="175" name="直線矢印コネクタ 174"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10728960" y="6682740"/>
+          <a:ext cx="0" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="179" name="直線矢印コネクタ 178"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6749144" y="7141029"/>
+          <a:ext cx="4724399" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="直線矢印コネクタ 188"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9448800" y="7826829"/>
+          <a:ext cx="0" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="195" name="直線矢印コネクタ 194"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9387841" y="7825740"/>
+          <a:ext cx="1341119" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="198" name="直線矢印コネクタ 197"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12070080" y="6682740"/>
+          <a:ext cx="0" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>585395</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>129282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>78121</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="201" name="フローチャート: 組合せ 200"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5309795" y="9327711"/>
+          <a:ext cx="167640" cy="126146"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
           <a:avLst/>
@@ -4022,26 +5099,386 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>668215</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>668215</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>585395</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>129282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>78121</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="フローチャート: 組合せ 201"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5949875" y="9326622"/>
+          <a:ext cx="163286" cy="126146"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>585395</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>129282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>78121</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="フローチャート: 組合せ 202"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6620435" y="9326622"/>
+          <a:ext cx="163286" cy="126146"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>593015</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>129282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85741</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="フローチャート: 組合せ 203"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639735" y="9326622"/>
+          <a:ext cx="163286" cy="126146"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>585395</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>129282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>78121</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="205" name="フローチャート: 組合せ 204"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9302675" y="9326622"/>
+          <a:ext cx="163286" cy="126146"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>585395</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>129282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>78121</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="206" name="フローチャート: 組合せ 205"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11314355" y="9326622"/>
+          <a:ext cx="163286" cy="126146"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600635</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>129282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>93361</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="フローチャート: 組合せ 206"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12000155" y="9326622"/>
+          <a:ext cx="163286" cy="126146"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="125" name="直線矢印コネクタ 124"/>
+        <xdr:cNvPr id="215" name="直線矢印コネクタ 214"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6013938" y="4624754"/>
-          <a:ext cx="0" cy="1143000"/>
+          <a:off x="6035040" y="9875520"/>
+          <a:ext cx="2682240" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4069,26 +5506,261 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571081</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>92109</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="216" name="直線矢印コネクタ 215"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6749143" y="10112829"/>
+          <a:ext cx="4724400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="219" name="直線矢印コネクタ 218"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8717280" y="9425940"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="221" name="直線矢印コネクタ 220"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11399520" y="9425940"/>
+          <a:ext cx="0" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="222" name="直線矢印コネクタ 221"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="10119360"/>
+          <a:ext cx="0" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="224" name="直線矢印コネクタ 223"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6035040" y="9883140"/>
+          <a:ext cx="0" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581967</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>188322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>102995</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="ひし形 121"/>
+        <xdr:cNvPr id="228" name="ひし形 227"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5916804" y="5386753"/>
-          <a:ext cx="189243" cy="185058"/>
+          <a:off x="8680938" y="9386751"/>
+          <a:ext cx="195943" cy="185058"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -4130,72 +5802,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="133" name="直線矢印コネクタ 132"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11473543" y="4626429"/>
-          <a:ext cx="1" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>576105</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>97134</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:colOff>581967</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>188322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>102995</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="ひし形 123"/>
+        <xdr:cNvPr id="229" name="ひし形 228"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11305065" y="5387339"/>
-          <a:ext cx="191589" cy="185058"/>
+          <a:off x="11380596" y="9386751"/>
+          <a:ext cx="195942" cy="185058"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -4236,73 +5861,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="130" name="直線矢印コネクタ 129"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8773886" y="4626429"/>
-          <a:ext cx="0" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>576105</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>97133</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>578701</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>199207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99729</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>155665</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="ひし形 122"/>
+        <xdr:cNvPr id="232" name="ひし形 231"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8594690" y="5386753"/>
-          <a:ext cx="189243" cy="185058"/>
+          <a:off x="5303101" y="9397636"/>
+          <a:ext cx="195942" cy="185058"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -4343,26 +5921,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>668215</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>13400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="136" name="直線矢印コネクタ 135"/>
+        <xdr:cNvPr id="98" name="直線矢印コネクタ 97"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6067529" y="4626429"/>
-          <a:ext cx="7430757" cy="13400"/>
+        <a:xfrm>
+          <a:off x="6023113" y="4691270"/>
+          <a:ext cx="0" cy="927652"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4390,637 +5968,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>585395</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>151054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="157" name="直線矢印コネクタ 156"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6074229" y="6683829"/>
-          <a:ext cx="0" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="159" name="直線矢印コネクタ 158"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6074229" y="7598229"/>
-          <a:ext cx="0" cy="1828800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="164" name="直線矢印コネクタ 163"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6749143" y="7141029"/>
-          <a:ext cx="0" cy="2286000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="165" name="直線矢印コネクタ 164"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8098971" y="6683829"/>
-          <a:ext cx="0" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="167" name="直線矢印コネクタ 166"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6035040" y="7597140"/>
-          <a:ext cx="2011680" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="171" name="直線矢印コネクタ 170"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8773886" y="6683829"/>
-          <a:ext cx="0" cy="2743200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="173" name="直線矢印コネクタ 172"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11473543" y="7369629"/>
-          <a:ext cx="0" cy="2057400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="174" name="直線矢印コネクタ 173"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11473543" y="6683829"/>
-          <a:ext cx="0" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="175" name="直線矢印コネクタ 174"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10728960" y="6682740"/>
-          <a:ext cx="0" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="179" name="直線矢印コネクタ 178"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6749144" y="7141029"/>
-          <a:ext cx="4724399" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="189" name="直線矢印コネクタ 188"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9448800" y="7826829"/>
-          <a:ext cx="0" cy="1600200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="195" name="直線矢印コネクタ 194"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9387841" y="7825740"/>
-          <a:ext cx="1341119" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="198" name="直線矢印コネクタ 197"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12070080" y="6682740"/>
-          <a:ext cx="0" cy="2743200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>585395</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
       <xdr:colOff>78121</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>26828</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="201" name="フローチャート: 組合せ 200"/>
+        <xdr:cNvPr id="77" name="フローチャート: 組合せ 76"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5309795" y="9327711"/>
-          <a:ext cx="167640" cy="126146"/>
+          <a:off x="5291866" y="4857525"/>
+          <a:ext cx="165079" cy="130628"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
           <a:avLst/>
@@ -5061,386 +6028,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>585395</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129282</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>78121</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>26828</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="202" name="フローチャート: 組合せ 201"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5949875" y="9326622"/>
-          <a:ext cx="163286" cy="126146"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMerge">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>585395</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>78121</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>26828</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="203" name="フローチャート: 組合せ 202"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6620435" y="9326622"/>
-          <a:ext cx="163286" cy="126146"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMerge">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>593015</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>85741</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>26828</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="204" name="フローチャート: 組合せ 203"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8639735" y="9326622"/>
-          <a:ext cx="163286" cy="126146"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMerge">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>585395</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>78121</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>26828</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="205" name="フローチャート: 組合せ 204"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9302675" y="9326622"/>
-          <a:ext cx="163286" cy="126146"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMerge">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>585395</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>78121</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>26828</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="206" name="フローチャート: 組合せ 205"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11314355" y="9326622"/>
-          <a:ext cx="163286" cy="126146"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMerge">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>600635</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>93361</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>26828</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="207" name="フローチャート: 組合せ 206"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12000155" y="9326622"/>
-          <a:ext cx="163286" cy="126146"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMerge">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="215" name="直線矢印コネクタ 214"/>
+        <xdr:cNvPr id="100" name="直線矢印コネクタ 99"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6035040" y="9875520"/>
-          <a:ext cx="2682240" cy="7620"/>
+          <a:off x="2007704" y="4691270"/>
+          <a:ext cx="4015409" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5464,427 +6071,2401 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="216" name="直線矢印コネクタ 215"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6749143" y="10112829"/>
-          <a:ext cx="4724400" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="219" name="直線矢印コネクタ 218"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8717280" y="9425940"/>
-          <a:ext cx="0" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="221" name="直線矢印コネクタ 220"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11399520" y="9425940"/>
-          <a:ext cx="0" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="222" name="直線矢印コネクタ 221"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6705600" y="10119360"/>
-          <a:ext cx="0" cy="449580"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="224" name="直線矢印コネクタ 223"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6035040" y="9883140"/>
-          <a:ext cx="0" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581967</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>188322</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>102995</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="228" name="ひし形 227"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8680938" y="9386751"/>
-          <a:ext cx="195943" cy="185058"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>581967</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>188322</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>102995</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="229" name="ひし形 228"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11380596" y="9386751"/>
-          <a:ext cx="195942" cy="185058"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>578701</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>199207</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>99729</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>155665</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="232" name="ひし形 231"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5303101" y="9397636"/>
-          <a:ext cx="195942" cy="185058"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線コネクタ 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1330036" y="748145"/>
+          <a:ext cx="0" cy="11776364"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2660073" y="1454727"/>
+          <a:ext cx="0" cy="11069782"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5703</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1224903" y="983672"/>
+          <a:ext cx="215969" cy="10834255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>112122</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2583179" y="1197429"/>
+          <a:ext cx="606335" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Eater</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6871855" y="5223164"/>
+          <a:ext cx="0" cy="7301345"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6781801" y="4855029"/>
+          <a:ext cx="1556656" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:ItemData</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> :MenuData</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AdditionalMenuData</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SelectionMenuData</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1470660" y="2110740"/>
+          <a:ext cx="1143000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1503317" y="3025140"/>
+          <a:ext cx="1110343" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2613660" y="2110740"/>
+          <a:ext cx="228600" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2842260" y="2339340"/>
+          <a:ext cx="457200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>116540</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>112121</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2730200" y="2567940"/>
+          <a:ext cx="224181" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3299460" y="2339340"/>
+          <a:ext cx="0" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2956560" y="2567940"/>
+          <a:ext cx="342901" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1470660" y="1196340"/>
+          <a:ext cx="1028700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4626429" y="4855029"/>
+          <a:ext cx="2155371" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4099560" y="3710940"/>
+          <a:ext cx="571500" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:Shop</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1470660" y="3710940"/>
+          <a:ext cx="2628900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4211782" y="4045527"/>
+          <a:ext cx="0" cy="8478982"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1470660" y="4625340"/>
+          <a:ext cx="2743200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>112121</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4379321" y="6455229"/>
+          <a:ext cx="247107" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線コネクタ 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4556760" y="6682740"/>
+          <a:ext cx="457200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5013960" y="6682740"/>
+          <a:ext cx="0" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4671059" y="6911340"/>
+          <a:ext cx="342902" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4746171" y="7141029"/>
+          <a:ext cx="4310743" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4746173" y="7369629"/>
+          <a:ext cx="4310741" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1513114" y="10112829"/>
+          <a:ext cx="2873829" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4386943" y="10112829"/>
+          <a:ext cx="239486" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1513116" y="10570029"/>
+          <a:ext cx="2873827" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>4416</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>119741</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4511102" y="6455229"/>
+          <a:ext cx="235068" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線コネクタ 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4442460" y="4853940"/>
+          <a:ext cx="457200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線コネクタ 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4899660" y="4853940"/>
+          <a:ext cx="0" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4556759" y="5082540"/>
+          <a:ext cx="342902" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>4419</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4446879" y="6911340"/>
+          <a:ext cx="224180" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1470661" y="8740140"/>
+          <a:ext cx="2743199" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>83873</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>187037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>41563</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3872102" y="6642266"/>
+          <a:ext cx="5705347" cy="1957448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>roop</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1285</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="998812" y="1690255"/>
+          <a:ext cx="9774086" cy="9795164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>roop</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>112120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4379320" y="4626429"/>
+          <a:ext cx="247108" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1513115" y="5312229"/>
+          <a:ext cx="2873828" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線コネクタ 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="5929745"/>
+          <a:ext cx="0" cy="6594764"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8817429" y="5312229"/>
+          <a:ext cx="957943" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OrderData</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1513114" y="5312229"/>
+          <a:ext cx="7304315" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1513114" y="5998029"/>
+          <a:ext cx="2873829" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9056914" y="7141029"/>
+          <a:ext cx="239486" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4746171" y="6912429"/>
+          <a:ext cx="4310743" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4746173" y="7141029"/>
+          <a:ext cx="4310741" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9056914" y="6912429"/>
+          <a:ext cx="239486" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6215,7 +8796,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9084,7 +11665,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10977,7 +13558,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13600,7 +16181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -13618,6 +16199,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK49"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="93" width="1.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C3" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="V10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="AJ19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="AJ27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="AK31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="AK34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="AK39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="J44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="J46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.45">
+      <c r="J49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>
@@ -13656,7 +16349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>
@@ -13849,7 +16542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>
@@ -13875,7 +16568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>
@@ -13981,7 +16674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>

--- a/doc/飲食店街システム設計書.xlsx
+++ b/doc/飲食店街システム設計書.xlsx
@@ -8,11 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="クラス図" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="クラス図 (Rメモ)" sheetId="3" r:id="rId4"/>
-    <sheet name="シーケンス図" sheetId="4" r:id="rId5"/>
-    <sheet name="クラス図 (old)" sheetId="5" r:id="rId6"/>
+    <sheet name="シーケンス図" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="クラス図 (Rメモ)" sheetId="3" r:id="rId5"/>
+    <sheet name="シーケンス図 (old)" sheetId="4" r:id="rId6"/>
+    <sheet name="クラス図 (old)" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>main()</t>
     <phoneticPr fontId="1"/>
@@ -200,6 +201,33 @@
   <si>
     <t>飲食店が行う基本動作（共通の動作）</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setMenu()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orderCheck()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>checkMenuData()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setOrderMessage(),addOrderMessage()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getOrderMessage()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>totalFee</t>
   </si>
 </sst>
 </file>
@@ -429,9 +457,9 @@
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>283030</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>119741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -489,15 +517,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>84141</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>186145</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>370114</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -507,8 +535,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3458712" y="8241574"/>
-          <a:ext cx="10161494" cy="4081055"/>
+          <a:off x="4133627" y="8416551"/>
+          <a:ext cx="13109344" cy="4134678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -555,16 +583,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>475129</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>475128</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>272142</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>119742</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -573,8 +601,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4524615" y="391886"/>
-          <a:ext cx="11270556" cy="6389914"/>
+          <a:off x="5199528" y="424543"/>
+          <a:ext cx="12467985" cy="7990114"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -627,7 +655,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -690,7 +718,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -728,7 +756,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>totalFee : int</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -742,7 +781,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -799,13 +838,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -862,13 +901,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -936,13 +975,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1032,15 +1071,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1095,15 +1134,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1172,15 +1211,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1217,7 +1256,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1225,10 +1264,13 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>addData(String name,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" smtClean="0">
+            <a:t>addData(String name,int price) : void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1236,46 +1278,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>int price) </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: void</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>getName(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>int number) :</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0" smtClean="0">
+            <a:t>getName(int number) :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" baseline="0" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1289,7 +1295,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1297,24 +1303,13 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>getPrice(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>int number) : int</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:t>getPrice(int number) : int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1324,7 +1319,7 @@
             </a:rPr>
             <a:t>getSize() : void</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1332,15 +1327,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1379,15 +1374,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1442,15 +1437,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1494,15 +1489,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1546,15 +1541,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>667293</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>667292</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1609,15 +1604,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>667293</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>667292</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1661,15 +1656,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>667293</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>667292</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1714,14 +1709,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:colOff>669233</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1731,8 +1726,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10798628" y="9427029"/>
-          <a:ext cx="2699658" cy="228600"/>
+          <a:off x="11376990" y="8633791"/>
+          <a:ext cx="2007706" cy="231913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1777,14 +1772,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:colOff>669233</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1794,8 +1789,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10798628" y="9655629"/>
-          <a:ext cx="2699658" cy="228600"/>
+          <a:off x="11376990" y="8865704"/>
+          <a:ext cx="2007706" cy="231913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1829,15 +1824,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>669233</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>231913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1846,8 +1841,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10798628" y="9884229"/>
-          <a:ext cx="2699658" cy="457200"/>
+          <a:off x="11376990" y="9097617"/>
+          <a:ext cx="2007706" cy="463826"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1880,13 +1875,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -1927,15 +1922,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1974,15 +1969,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2021,15 +2016,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2039,8 +2034,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5399314" y="3712029"/>
-          <a:ext cx="0" cy="1371600"/>
+          <a:off x="2007704" y="3763617"/>
+          <a:ext cx="0" cy="927653"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2068,13 +2063,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2131,13 +2126,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2175,6 +2170,21 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shopName : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>String</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2183,13 +2193,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2244,6 +2254,45 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>create() : Shop</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -2265,13 +2314,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2318,7 +2367,7 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2381,7 +2430,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2418,8 +2467,50 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shopName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2433,9 +2524,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2446,7 +2537,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1349829" y="3026229"/>
-          <a:ext cx="2024742" cy="685800"/>
+          <a:ext cx="2699657" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2496,6 +2587,34 @@
             </a:rPr>
             <a:t>getInputData() : String</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>setMenu() : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>doAccounting() : int</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2611,13 +2730,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>576943</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>87085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>97972</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
@@ -2671,15 +2790,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2689,8 +2808,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4706472" y="4939553"/>
-          <a:ext cx="2017058" cy="233082"/>
+          <a:off x="5399315" y="5769429"/>
+          <a:ext cx="2699656" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2734,15 +2853,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2752,8 +2871,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4706472" y="5172635"/>
-          <a:ext cx="2017058" cy="233083"/>
+          <a:off x="5399315" y="5998029"/>
+          <a:ext cx="2699656" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2778,7 +2897,82 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shopName : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>menuData</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MenuData</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>selectionMenuData : SelectionMenuData</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>totalFee : int</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2786,15 +2980,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2804,8 +2998,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4677509" y="5996354"/>
-          <a:ext cx="2004646" cy="685800"/>
+          <a:off x="5399315" y="6226629"/>
+          <a:ext cx="2699656" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2853,7 +3047,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>work() : int</a:t>
+            <a:t>setMenu() : void</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2869,6 +3063,34 @@
             </a:rPr>
             <a:t>getInputData() : String</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>orderCheck() : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>doAccounting() : int</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
         </a:p>
       </xdr:txBody>
@@ -2877,16 +3099,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2895,8 +3117,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13498286" y="3940629"/>
-          <a:ext cx="2024743" cy="228600"/>
+          <a:off x="14848114" y="3483428"/>
+          <a:ext cx="2699657" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2940,16 +3162,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2958,8 +3180,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13498286" y="4169229"/>
-          <a:ext cx="2024743" cy="228601"/>
+          <a:off x="14848114" y="3712028"/>
+          <a:ext cx="2699657" cy="228601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3014,15 +3236,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3032,8 +3254,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13498286" y="4397830"/>
-          <a:ext cx="2024743" cy="1142999"/>
+          <a:off x="14848114" y="3940628"/>
+          <a:ext cx="2699657" cy="1371601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3067,19 +3289,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>createShop()</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
+            <a:t>setMenu() : void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
               <a:solidFill>
@@ -3089,10 +3303,13 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0" smtClean="0">
+            <a:t>orderCheck() : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3100,7 +3317,49 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> Shop</a:t>
+            <a:t>doAccounting() : intcheckMenuData() : int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>checkSelectionMenuData() : int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>checkAdditionalMenuData() : int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>getInputData() : String</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
         </a:p>
@@ -3110,15 +3369,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>672352</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>670778</xdr:colOff>
       <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3128,8 +3387,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7395882" y="4939553"/>
-          <a:ext cx="2017058" cy="233082"/>
+          <a:off x="8769749" y="5769429"/>
+          <a:ext cx="3378708" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3173,15 +3432,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>672352</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>670778</xdr:colOff>
       <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3191,8 +3450,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7395882" y="5172635"/>
-          <a:ext cx="2017058" cy="233083"/>
+          <a:off x="8769749" y="5998029"/>
+          <a:ext cx="3378708" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3216,8 +3475,92 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shopName : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>menuData</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MenuData</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>additionalData : AdditionalMenuData</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>totalFee : int</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3225,15 +3568,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>4137</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>670778</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3243,8 +3586,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7350369" y="5996354"/>
-          <a:ext cx="2008783" cy="685800"/>
+          <a:off x="8769749" y="7141029"/>
+          <a:ext cx="3378708" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3268,7 +3611,6 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
               <a:solidFill>
@@ -3278,23 +3620,71 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TotsuzenStakeShop()</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:t>RamenShirouShop</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
+              <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>work() : int</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>()</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>setMenu() : void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>orderCheck() : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>doAccounting() : int</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3302,15 +3692,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3320,8 +3710,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10058400" y="5539740"/>
-          <a:ext cx="2682240" cy="228600"/>
+          <a:off x="12823371" y="5769429"/>
+          <a:ext cx="2699657" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3365,15 +3755,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3383,8 +3773,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10058400" y="5768340"/>
-          <a:ext cx="2682240" cy="228600"/>
+          <a:off x="12823371" y="5998029"/>
+          <a:ext cx="2699657" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3408,8 +3798,127 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shopName : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>menuData</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MenuData</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>selectionMenuData : SelectionMenuData</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>additionalData : AdditionalMenuData</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>totalFee : int</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3417,15 +3926,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3435,8 +3944,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10058400" y="5996940"/>
-          <a:ext cx="2682240" cy="685800"/>
+          <a:off x="12823371" y="6226629"/>
+          <a:ext cx="2699657" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3460,7 +3969,6 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
               <a:solidFill>
@@ -3470,23 +3978,74 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TotsuzenStakeShop()</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:t>AkamaruUdonShop</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
+              <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>work() : int</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>()</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>setMenu() : void</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>orderCheck() : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>doAccounting() : int</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3494,13 +4053,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>552098</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>170328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>67874</xdr:rowOff>
@@ -3560,26 +4119,308 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>585395</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線矢印コネクタ 84"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2699657" y="3940629"/>
+          <a:ext cx="0" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="直線矢印コネクタ 87"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2699657" y="4626429"/>
+          <a:ext cx="6749143" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>663387</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線矢印コネクタ 92"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9437273" y="4626429"/>
+          <a:ext cx="11527" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直線矢印コネクタ 98"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3374571" y="3940629"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="直線矢印コネクタ 101"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3374571" y="4397829"/>
+          <a:ext cx="10123715" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="直線矢印コネクタ 102"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13498286" y="4397829"/>
+          <a:ext cx="0" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>576430</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>151054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>78121</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>69157</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="フローチャート: 組合せ 76"/>
+        <xdr:cNvPr id="110" name="フローチャート: 組合せ 109"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5291866" y="4857525"/>
-          <a:ext cx="165079" cy="130628"/>
+          <a:off x="9350316" y="5691883"/>
+          <a:ext cx="167641" cy="126146"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
           <a:avLst/>
@@ -3620,308 +4461,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="直線矢印コネクタ 84"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6074229" y="3712029"/>
-          <a:ext cx="0" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="直線矢印コネクタ 87"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6074229" y="4397829"/>
-          <a:ext cx="2024742" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>663388</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>585396</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="93" name="直線矢印コネクタ 92"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8087445" y="4397829"/>
-          <a:ext cx="11526" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="99" name="直線矢印コネクタ 98"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6749143" y="3712029"/>
-          <a:ext cx="0" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="102" name="直線矢印コネクタ 101"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6705600" y="4168140"/>
-          <a:ext cx="4023360" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="103" name="直線矢印コネクタ 102"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10728960" y="4168140"/>
-          <a:ext cx="0" cy="1371600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>576431</xdr:colOff>
-      <xdr:row>23</xdr:row>
       <xdr:rowOff>151054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>69157</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>78122</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="フローチャート: 組合せ 109"/>
+        <xdr:cNvPr id="111" name="フローチャート: 組合せ 110"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7972313" y="4857525"/>
-          <a:ext cx="165079" cy="130628"/>
+          <a:off x="13408767" y="5691883"/>
+          <a:ext cx="167641" cy="126146"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
           <a:avLst/>
@@ -3962,26 +4521,911 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>585395</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>151054</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>78122</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>668215</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="直線矢印コネクタ 124"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6691328" y="4691270"/>
+          <a:ext cx="1020" cy="927652"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571081</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>92109</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="フローチャート: 組合せ 110"/>
+        <xdr:cNvPr id="122" name="ひし形 121"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10643795" y="5462194"/>
-          <a:ext cx="163287" cy="126146"/>
+          <a:off x="5916804" y="5386753"/>
+          <a:ext cx="189243" cy="185058"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="直線矢印コネクタ 132"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14173200" y="4855029"/>
+          <a:ext cx="1" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>576105</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>97134</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="ひし形 123"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14074391" y="5617028"/>
+          <a:ext cx="195943" cy="185058"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直線矢印コネクタ 129"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10123714" y="4855029"/>
+          <a:ext cx="0" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>576105</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>97133</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="ひし形 122"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10024905" y="5617028"/>
+          <a:ext cx="195942" cy="185058"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="直線矢印コネクタ 135"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6749143" y="4855029"/>
+          <a:ext cx="8098971" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="直線矢印コネクタ 156"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6074229" y="6683829"/>
+          <a:ext cx="0" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="159" name="直線矢印コネクタ 158"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6074229" y="7598229"/>
+          <a:ext cx="0" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="直線矢印コネクタ 163"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6749143" y="7141029"/>
+          <a:ext cx="0" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="直線矢印コネクタ 164"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10798629" y="6912429"/>
+          <a:ext cx="0" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="167" name="直線矢印コネクタ 166"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12823371" y="7598229"/>
+          <a:ext cx="1349829" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="直線矢印コネクタ 170"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8773886" y="6683829"/>
+          <a:ext cx="0" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="173" name="直線矢印コネクタ 172"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11473543" y="7369629"/>
+          <a:ext cx="0" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="174" name="直線矢印コネクタ 173"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13498286" y="6912429"/>
+          <a:ext cx="0" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="179" name="直線矢印コネクタ 178"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7424058" y="7369629"/>
+          <a:ext cx="6074228" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="直線矢印コネクタ 188"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10123714" y="6912429"/>
+          <a:ext cx="0" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="198" name="直線矢印コネクタ 197"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12823371" y="7598229"/>
+          <a:ext cx="0" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>585395</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>129282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>78121</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>26828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="201" name="フローチャート: 組合せ 200"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5309795" y="9327711"/>
+          <a:ext cx="167640" cy="126146"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
           <a:avLst/>
@@ -4022,26 +5466,386 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>668215</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>668215</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>585395</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>129282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>78121</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>26828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="フローチャート: 組合せ 201"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5949875" y="9326622"/>
+          <a:ext cx="163286" cy="126146"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>585395</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>129282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>78121</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>26828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="フローチャート: 組合せ 202"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6620435" y="9326622"/>
+          <a:ext cx="163286" cy="126146"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>593015</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>129282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85741</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>26828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="フローチャート: 組合せ 203"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639735" y="9326622"/>
+          <a:ext cx="163286" cy="126146"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>585395</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>129282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>78121</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>26828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="205" name="フローチャート: 組合せ 204"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9302675" y="9326622"/>
+          <a:ext cx="163286" cy="126146"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>585395</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>129282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>78121</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>26828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="206" name="フローチャート: 組合せ 205"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11314355" y="9326622"/>
+          <a:ext cx="163286" cy="126146"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600635</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>129282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>93361</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>26828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="フローチャート: 組合せ 206"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12000155" y="9326622"/>
+          <a:ext cx="163286" cy="126146"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMerge">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="125" name="直線矢印コネクタ 124"/>
+        <xdr:cNvPr id="215" name="直線矢印コネクタ 214"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6013938" y="4624754"/>
-          <a:ext cx="0" cy="1143000"/>
+          <a:off x="6035040" y="9875520"/>
+          <a:ext cx="2682240" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4069,26 +5873,261 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571081</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>92109</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="216" name="直線矢印コネクタ 215"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6749143" y="10112829"/>
+          <a:ext cx="4724400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="219" name="直線矢印コネクタ 218"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8717280" y="9425940"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="221" name="直線矢印コネクタ 220"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11399520" y="9425940"/>
+          <a:ext cx="0" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="222" name="直線矢印コネクタ 221"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="10119360"/>
+          <a:ext cx="0" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="224" name="直線矢印コネクタ 223"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6035040" y="9883140"/>
+          <a:ext cx="0" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581967</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>188322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>102995</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="ひし形 121"/>
+        <xdr:cNvPr id="228" name="ひし形 227"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5916804" y="5386753"/>
-          <a:ext cx="189243" cy="185058"/>
+          <a:off x="8680938" y="9386751"/>
+          <a:ext cx="195943" cy="185058"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -4130,72 +6169,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="133" name="直線矢印コネクタ 132"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11473543" y="4626429"/>
-          <a:ext cx="1" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>576105</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>97134</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:colOff>581967</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>188322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>102995</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="ひし形 123"/>
+        <xdr:cNvPr id="229" name="ひし形 228"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11305065" y="5387339"/>
-          <a:ext cx="191589" cy="185058"/>
+          <a:off x="11380596" y="9386751"/>
+          <a:ext cx="195942" cy="185058"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -4236,73 +6228,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="130" name="直線矢印コネクタ 129"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8773886" y="4626429"/>
-          <a:ext cx="0" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>576105</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>97133</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>578701</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>199207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99729</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>155665</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="ひし形 122"/>
+        <xdr:cNvPr id="232" name="ひし形 231"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8594690" y="5386753"/>
-          <a:ext cx="189243" cy="185058"/>
+          <a:off x="5303101" y="9397636"/>
+          <a:ext cx="195942" cy="185058"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -4343,26 +6288,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>668215</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>13400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="136" name="直線矢印コネクタ 135"/>
+        <xdr:cNvPr id="98" name="直線矢印コネクタ 97"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6067529" y="4626429"/>
-          <a:ext cx="7430757" cy="13400"/>
+        <a:xfrm>
+          <a:off x="6023113" y="4691270"/>
+          <a:ext cx="0" cy="927652"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4390,637 +6335,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>585395</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>151054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="157" name="直線矢印コネクタ 156"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6074229" y="6683829"/>
-          <a:ext cx="0" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="159" name="直線矢印コネクタ 158"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6074229" y="7598229"/>
-          <a:ext cx="0" cy="1828800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="164" name="直線矢印コネクタ 163"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6749143" y="7141029"/>
-          <a:ext cx="0" cy="2286000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="165" name="直線矢印コネクタ 164"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8098971" y="6683829"/>
-          <a:ext cx="0" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="167" name="直線矢印コネクタ 166"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6035040" y="7597140"/>
-          <a:ext cx="2011680" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="171" name="直線矢印コネクタ 170"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8773886" y="6683829"/>
-          <a:ext cx="0" cy="2743200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="173" name="直線矢印コネクタ 172"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11473543" y="7369629"/>
-          <a:ext cx="0" cy="2057400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="174" name="直線矢印コネクタ 173"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11473543" y="6683829"/>
-          <a:ext cx="0" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="175" name="直線矢印コネクタ 174"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10728960" y="6682740"/>
-          <a:ext cx="0" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="179" name="直線矢印コネクタ 178"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6749144" y="7141029"/>
-          <a:ext cx="4724399" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="189" name="直線矢印コネクタ 188"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9448800" y="7826829"/>
-          <a:ext cx="0" cy="1600200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="195" name="直線矢印コネクタ 194"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9387841" y="7825740"/>
-          <a:ext cx="1341119" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="198" name="直線矢印コネクタ 197"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12070080" y="6682740"/>
-          <a:ext cx="0" cy="2743200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>585395</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
       <xdr:colOff>78121</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>26828</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="201" name="フローチャート: 組合せ 200"/>
+        <xdr:cNvPr id="77" name="フローチャート: 組合せ 76"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5309795" y="9327711"/>
-          <a:ext cx="167640" cy="126146"/>
+          <a:off x="5291866" y="4857525"/>
+          <a:ext cx="165079" cy="130628"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
           <a:avLst/>
@@ -5061,26 +6395,578 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>585395</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129282</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>78121</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>26828</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="直線矢印コネクタ 99"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2007704" y="4691270"/>
+          <a:ext cx="4015409" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="202" name="フローチャート: 組合せ 201"/>
+        <xdr:cNvPr id="101" name="正方形/長方形 100"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5949875" y="9326622"/>
-          <a:ext cx="163286" cy="126146"/>
+          <a:off x="14173200" y="8741229"/>
+          <a:ext cx="2699657" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>orderData()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="正方形/長方形 103"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14173200" y="10570029"/>
+          <a:ext cx="2699657" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>order : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>orderMessage : String</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14173200" y="11027229"/>
+          <a:ext cx="2699657" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>setOrder()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>getOrder() : String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>setOrderMessage() : void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>addOrderMessage() : void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>getOrderMessage() : String</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="直線矢印コネクタ 107"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14173200" y="6912429"/>
+          <a:ext cx="0" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直線矢印コネクタ 111"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6749143" y="8055429"/>
+          <a:ext cx="4049486" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="直線矢印コネクタ 114"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7424057" y="7369629"/>
+          <a:ext cx="8773886" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="直線矢印コネクタ 115"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7424057" y="6912429"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="直線矢印コネクタ 116"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16197943" y="7369629"/>
+          <a:ext cx="0" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>585395</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>129282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>78121</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>26828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="フローチャート: 組合せ 117"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16108424" y="8870511"/>
+          <a:ext cx="167640" cy="126146"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
           <a:avLst/>
@@ -5121,26 +7007,73 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>585395</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="直線矢印コネクタ 125"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15523029" y="8284029"/>
+          <a:ext cx="0" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>585396</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>129282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>78121</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>26828</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="203" name="フローチャート: 組合せ 202"/>
+        <xdr:cNvPr id="127" name="フローチャート: 組合せ 126"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6620435" y="9326622"/>
-          <a:ext cx="163286" cy="126146"/>
+          <a:off x="15433510" y="8870511"/>
+          <a:ext cx="167640" cy="126146"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
           <a:avLst/>
@@ -5181,26 +7114,73 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>593015</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="直線矢印コネクタ 127"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14848114" y="6912429"/>
+          <a:ext cx="0" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>585395</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>129282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>85741</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>78121</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>26828</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="204" name="フローチャート: 組合せ 203"/>
+        <xdr:cNvPr id="129" name="フローチャート: 組合せ 128"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8639735" y="9326622"/>
-          <a:ext cx="163286" cy="126146"/>
+          <a:off x="14758595" y="8870511"/>
+          <a:ext cx="167640" cy="126146"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMerge">
           <a:avLst/>
@@ -5241,206 +7221,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>585395</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>78121</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>26828</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="205" name="フローチャート: 組合せ 204"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9302675" y="9326622"/>
-          <a:ext cx="163286" cy="126146"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMerge">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>585395</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>78121</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>26828</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="206" name="フローチャート: 組合せ 205"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11314355" y="9326622"/>
-          <a:ext cx="163286" cy="126146"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMerge">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>600635</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>93361</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>26828</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="207" name="フローチャート: 組合せ 206"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12000155" y="9326622"/>
-          <a:ext cx="163286" cy="126146"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMerge">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="215" name="直線矢印コネクタ 214"/>
+        <xdr:cNvPr id="131" name="直線矢印コネクタ 130"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6035040" y="9875520"/>
-          <a:ext cx="2682240" cy="7620"/>
+          <a:off x="11473543" y="8284029"/>
+          <a:ext cx="4049486" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5468,26 +7268,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="216" name="直線矢印コネクタ 215"/>
+        <xdr:cNvPr id="132" name="直線矢印コネクタ 131"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6749143" y="10112829"/>
-          <a:ext cx="4724400" cy="0"/>
+          <a:off x="11473543" y="6912429"/>
+          <a:ext cx="0" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5511,374 +7311,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="219" name="直線矢印コネクタ 218"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8717280" y="9425940"/>
-          <a:ext cx="0" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="221" name="直線矢印コネクタ 220"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11399520" y="9425940"/>
-          <a:ext cx="0" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="222" name="直線矢印コネクタ 221"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6705600" y="10119360"/>
-          <a:ext cx="0" cy="449580"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="224" name="直線矢印コネクタ 223"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6035040" y="9883140"/>
-          <a:ext cx="0" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581967</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>188322</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>102995</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="228" name="ひし形 227"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8680938" y="9386751"/>
-          <a:ext cx="195943" cy="185058"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>581967</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>188322</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>102995</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="229" name="ひし形 228"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11380596" y="9386751"/>
-          <a:ext cx="195942" cy="185058"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>578701</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>199207</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>99729</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>155665</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="232" name="ひし形 231"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5303101" y="9397636"/>
-          <a:ext cx="195942" cy="185058"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5888,6 +7320,2365 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線コネクタ 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1330036" y="748145"/>
+          <a:ext cx="0" cy="11776364"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2660073" y="1454727"/>
+          <a:ext cx="0" cy="11069782"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5703</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1224903" y="983672"/>
+          <a:ext cx="215969" cy="10834255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>112122</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2583179" y="1197429"/>
+          <a:ext cx="606335" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:Eater</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6871855" y="5223164"/>
+          <a:ext cx="0" cy="7301345"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6781801" y="4855029"/>
+          <a:ext cx="1556656" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:ItemData</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> :MenuData</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AdditionalMenuData</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SelectionMenuData</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1470660" y="2110740"/>
+          <a:ext cx="1143000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1503317" y="3025140"/>
+          <a:ext cx="1110343" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2613660" y="2110740"/>
+          <a:ext cx="228600" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2842260" y="2339340"/>
+          <a:ext cx="457200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>116540</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>112121</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2730200" y="2567940"/>
+          <a:ext cx="224181" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3299460" y="2339340"/>
+          <a:ext cx="0" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2956560" y="2567940"/>
+          <a:ext cx="342901" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1470660" y="1196340"/>
+          <a:ext cx="1028700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4626429" y="4855029"/>
+          <a:ext cx="2155371" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4099560" y="3710940"/>
+          <a:ext cx="571500" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:Shop</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1470660" y="3710940"/>
+          <a:ext cx="2628900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4211782" y="4045527"/>
+          <a:ext cx="0" cy="8478982"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1470660" y="4625340"/>
+          <a:ext cx="2743200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>112121</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4379321" y="6455229"/>
+          <a:ext cx="247107" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線コネクタ 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4556760" y="6682740"/>
+          <a:ext cx="457200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5013960" y="6682740"/>
+          <a:ext cx="0" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4671059" y="6911340"/>
+          <a:ext cx="342902" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4746171" y="7141029"/>
+          <a:ext cx="4310743" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4746173" y="7369629"/>
+          <a:ext cx="4310741" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1513114" y="10112829"/>
+          <a:ext cx="2873829" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4386943" y="10112829"/>
+          <a:ext cx="239486" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1513116" y="10570029"/>
+          <a:ext cx="2873827" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>4416</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>119741</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4511102" y="6455229"/>
+          <a:ext cx="235068" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線コネクタ 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4442460" y="4853940"/>
+          <a:ext cx="457200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線コネクタ 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4899660" y="4853940"/>
+          <a:ext cx="0" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4556759" y="5082540"/>
+          <a:ext cx="342902" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>4419</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4446879" y="6911340"/>
+          <a:ext cx="224180" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1470661" y="8740140"/>
+          <a:ext cx="2743199" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>83873</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>187037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>41563</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3872102" y="6642266"/>
+          <a:ext cx="5705347" cy="1957448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>roop</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1285</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="998812" y="1690255"/>
+          <a:ext cx="9774086" cy="9795164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>roop</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>112120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4379320" y="4626429"/>
+          <a:ext cx="247108" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1513115" y="5312229"/>
+          <a:ext cx="2873828" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線コネクタ 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="5929745"/>
+          <a:ext cx="0" cy="6594764"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8817429" y="5312229"/>
+          <a:ext cx="957943" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:OrderData</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1513114" y="5312229"/>
+          <a:ext cx="7304315" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1513114" y="5998029"/>
+          <a:ext cx="2873829" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9056914" y="7141029"/>
+          <a:ext cx="239486" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4746171" y="6912429"/>
+          <a:ext cx="4310743" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4746173" y="7141029"/>
+          <a:ext cx="4310741" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9056914" y="6912429"/>
+          <a:ext cx="239486" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -6215,7 +10006,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9084,7 +12875,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10977,7 +14768,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13600,7 +17391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -13618,6 +17409,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK49"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="93" width="1.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="22.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C3" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="V10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="AJ19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="AJ27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="AK31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="AK34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="AK39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="J44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="10:37" x14ac:dyDescent="0.45">
+      <c r="J46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.45">
+      <c r="J49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>
@@ -13656,7 +17559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>
@@ -13849,7 +17752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>
@@ -13875,7 +17778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>
@@ -13981,7 +17884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>
